--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Mdk-Itgb1.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Mdk-Itgb1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.44561088907408</v>
+        <v>2.891504666666667</v>
       </c>
       <c r="H2">
-        <v>2.44561088907408</v>
+        <v>8.674514</v>
       </c>
       <c r="I2">
-        <v>0.1227632243693153</v>
+        <v>0.1213590456377548</v>
       </c>
       <c r="J2">
-        <v>0.1227632243693153</v>
+        <v>0.1213590456377548</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>105.516711488548</v>
+        <v>112.513392</v>
       </c>
       <c r="N2">
-        <v>105.516711488548</v>
+        <v>337.540176</v>
       </c>
       <c r="O2">
-        <v>0.3144527561247868</v>
+        <v>0.3275312977368564</v>
       </c>
       <c r="P2">
-        <v>0.3144527561247868</v>
+        <v>0.3275312977368564</v>
       </c>
       <c r="Q2">
-        <v>258.0528185956811</v>
+        <v>325.332998030496</v>
       </c>
       <c r="R2">
-        <v>258.0528185956811</v>
+        <v>2927.996982274464</v>
       </c>
       <c r="S2">
-        <v>0.03860323425369678</v>
+        <v>0.03974888570984019</v>
       </c>
       <c r="T2">
-        <v>0.03860323425369678</v>
+        <v>0.03974888570984019</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.44561088907408</v>
+        <v>2.891504666666667</v>
       </c>
       <c r="H3">
-        <v>2.44561088907408</v>
+        <v>8.674514</v>
       </c>
       <c r="I3">
-        <v>0.1227632243693153</v>
+        <v>0.1213590456377548</v>
       </c>
       <c r="J3">
-        <v>0.1227632243693153</v>
+        <v>0.1213590456377548</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>106.175494972697</v>
+        <v>106.314466</v>
       </c>
       <c r="N3">
-        <v>106.175494972697</v>
+        <v>318.943398</v>
       </c>
       <c r="O3">
-        <v>0.3164160117964026</v>
+        <v>0.3094859589441663</v>
       </c>
       <c r="P3">
-        <v>0.3164160117964026</v>
+        <v>0.3094859589441664</v>
       </c>
       <c r="Q3">
-        <v>259.663946658058</v>
+        <v>307.4087745731746</v>
       </c>
       <c r="R3">
-        <v>259.663946658058</v>
+        <v>2766.678971158572</v>
       </c>
       <c r="S3">
-        <v>0.03884424985020568</v>
+        <v>0.03755892061574938</v>
       </c>
       <c r="T3">
-        <v>0.03884424985020568</v>
+        <v>0.03755892061574938</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.44561088907408</v>
+        <v>2.891504666666667</v>
       </c>
       <c r="H4">
-        <v>2.44561088907408</v>
+        <v>8.674514</v>
       </c>
       <c r="I4">
-        <v>0.1227632243693153</v>
+        <v>0.1213590456377548</v>
       </c>
       <c r="J4">
-        <v>0.1227632243693153</v>
+        <v>0.1213590456377548</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>123.864437369458</v>
+        <v>124.6916553333333</v>
       </c>
       <c r="N4">
-        <v>123.864437369458</v>
+        <v>374.074966</v>
       </c>
       <c r="O4">
-        <v>0.3691312320788105</v>
+        <v>0.3629827433189773</v>
       </c>
       <c r="P4">
-        <v>0.3691312320788105</v>
+        <v>0.3629827433189773</v>
       </c>
       <c r="Q4">
-        <v>302.9242167997809</v>
+        <v>360.5465032907249</v>
       </c>
       <c r="R4">
-        <v>302.9242167997809</v>
+        <v>3244.918529616524</v>
       </c>
       <c r="S4">
-        <v>0.04531574026541281</v>
+        <v>0.04405123931216519</v>
       </c>
       <c r="T4">
-        <v>0.04531574026541281</v>
+        <v>0.0440512393121652</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11.3792377021134</v>
+        <v>12.04042966666667</v>
       </c>
       <c r="H5">
-        <v>11.3792377021134</v>
+        <v>36.121289</v>
       </c>
       <c r="I5">
-        <v>0.5712077572999406</v>
+        <v>0.505347637947847</v>
       </c>
       <c r="J5">
-        <v>0.5712077572999406</v>
+        <v>0.505347637947847</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>105.516711488548</v>
+        <v>112.513392</v>
       </c>
       <c r="N5">
-        <v>105.516711488548</v>
+        <v>337.540176</v>
       </c>
       <c r="O5">
-        <v>0.3144527561247868</v>
+        <v>0.3275312977368564</v>
       </c>
       <c r="P5">
-        <v>0.3144527561247868</v>
+        <v>0.3275312977368564</v>
       </c>
       <c r="Q5">
-        <v>1200.699741573507</v>
+        <v>1354.709582934096</v>
       </c>
       <c r="R5">
-        <v>1200.699741573507</v>
+        <v>12192.38624640686</v>
       </c>
       <c r="S5">
-        <v>0.1796178536028246</v>
+        <v>0.1655171676653134</v>
       </c>
       <c r="T5">
-        <v>0.1796178536028246</v>
+        <v>0.1655171676653134</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>11.3792377021134</v>
+        <v>12.04042966666667</v>
       </c>
       <c r="H6">
-        <v>11.3792377021134</v>
+        <v>36.121289</v>
       </c>
       <c r="I6">
-        <v>0.5712077572999406</v>
+        <v>0.505347637947847</v>
       </c>
       <c r="J6">
-        <v>0.5712077572999406</v>
+        <v>0.505347637947847</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>106.175494972697</v>
+        <v>106.314466</v>
       </c>
       <c r="N6">
-        <v>106.175494972697</v>
+        <v>318.943398</v>
       </c>
       <c r="O6">
-        <v>0.3164160117964026</v>
+        <v>0.3094859589441663</v>
       </c>
       <c r="P6">
-        <v>0.3164160117964026</v>
+        <v>0.3094859589441664</v>
       </c>
       <c r="Q6">
-        <v>1208.196195433865</v>
+        <v>1280.071850422225</v>
       </c>
       <c r="R6">
-        <v>1208.196195433865</v>
+        <v>11520.64665380002</v>
       </c>
       <c r="S6">
-        <v>0.1807392804720147</v>
+        <v>0.1563979983304588</v>
       </c>
       <c r="T6">
-        <v>0.1807392804720147</v>
+        <v>0.1563979983304588</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>11.3792377021134</v>
+        <v>12.04042966666667</v>
       </c>
       <c r="H7">
-        <v>11.3792377021134</v>
+        <v>36.121289</v>
       </c>
       <c r="I7">
-        <v>0.5712077572999406</v>
+        <v>0.505347637947847</v>
       </c>
       <c r="J7">
-        <v>0.5712077572999406</v>
+        <v>0.505347637947847</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>123.864437369458</v>
+        <v>124.6916553333333</v>
       </c>
       <c r="N7">
-        <v>123.864437369458</v>
+        <v>374.074966</v>
       </c>
       <c r="O7">
-        <v>0.3691312320788105</v>
+        <v>0.3629827433189773</v>
       </c>
       <c r="P7">
-        <v>0.3691312320788105</v>
+        <v>0.3629827433189773</v>
       </c>
       <c r="Q7">
-        <v>1409.4828756656</v>
+        <v>1501.341106061242</v>
       </c>
       <c r="R7">
-        <v>1409.4828756656</v>
+        <v>13512.06995455118</v>
       </c>
       <c r="S7">
-        <v>0.2108506232251013</v>
+        <v>0.1834324719520748</v>
       </c>
       <c r="T7">
-        <v>0.2108506232251013</v>
+        <v>0.1834324719520748</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>6.09651549515173</v>
+        <v>8.894099000000001</v>
       </c>
       <c r="H8">
-        <v>6.09651549515173</v>
+        <v>26.682297</v>
       </c>
       <c r="I8">
-        <v>0.3060290183307441</v>
+        <v>0.3732933164143983</v>
       </c>
       <c r="J8">
-        <v>0.3060290183307441</v>
+        <v>0.3732933164143982</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>105.516711488548</v>
+        <v>112.513392</v>
       </c>
       <c r="N8">
-        <v>105.516711488548</v>
+        <v>337.540176</v>
       </c>
       <c r="O8">
-        <v>0.3144527561247868</v>
+        <v>0.3275312977368564</v>
       </c>
       <c r="P8">
-        <v>0.3144527561247868</v>
+        <v>0.3275312977368564</v>
       </c>
       <c r="Q8">
-        <v>643.2842665873875</v>
+        <v>1000.705247273808</v>
       </c>
       <c r="R8">
-        <v>643.2842665873875</v>
+        <v>9006.347225464271</v>
       </c>
       <c r="S8">
-        <v>0.09623166826826539</v>
+        <v>0.1222652443617028</v>
       </c>
       <c r="T8">
-        <v>0.09623166826826539</v>
+        <v>0.1222652443617028</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>6.09651549515173</v>
+        <v>8.894099000000001</v>
       </c>
       <c r="H9">
-        <v>6.09651549515173</v>
+        <v>26.682297</v>
       </c>
       <c r="I9">
-        <v>0.3060290183307441</v>
+        <v>0.3732933164143983</v>
       </c>
       <c r="J9">
-        <v>0.3060290183307441</v>
+        <v>0.3732933164143982</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>106.175494972697</v>
+        <v>106.314466</v>
       </c>
       <c r="N9">
-        <v>106.175494972697</v>
+        <v>318.943398</v>
       </c>
       <c r="O9">
-        <v>0.3164160117964026</v>
+        <v>0.3094859589441663</v>
       </c>
       <c r="P9">
-        <v>0.3164160117964026</v>
+        <v>0.3094859589441664</v>
       </c>
       <c r="Q9">
-        <v>647.3005503064519</v>
+        <v>945.5713857361341</v>
       </c>
       <c r="R9">
-        <v>647.3005503064519</v>
+        <v>8510.142471625206</v>
       </c>
       <c r="S9">
-        <v>0.09683248147418225</v>
+        <v>0.1155290399979581</v>
       </c>
       <c r="T9">
-        <v>0.09683248147418225</v>
+        <v>0.1155290399979581</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.09651549515173</v>
+        <v>8.894099000000001</v>
       </c>
       <c r="H10">
-        <v>6.09651549515173</v>
+        <v>26.682297</v>
       </c>
       <c r="I10">
-        <v>0.3060290183307441</v>
+        <v>0.3732933164143983</v>
       </c>
       <c r="J10">
-        <v>0.3060290183307441</v>
+        <v>0.3732933164143982</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>123.864437369458</v>
+        <v>124.6916553333333</v>
       </c>
       <c r="N10">
-        <v>123.864437369458</v>
+        <v>374.074966</v>
       </c>
       <c r="O10">
-        <v>0.3691312320788105</v>
+        <v>0.3629827433189773</v>
       </c>
       <c r="P10">
-        <v>0.3691312320788105</v>
+        <v>0.3629827433189773</v>
       </c>
       <c r="Q10">
-        <v>755.1414617211517</v>
+        <v>1109.019927008545</v>
       </c>
       <c r="R10">
-        <v>755.1414617211517</v>
+        <v>9981.179343076903</v>
       </c>
       <c r="S10">
-        <v>0.1129648685882965</v>
+        <v>0.1354990320547373</v>
       </c>
       <c r="T10">
-        <v>0.1129648685882965</v>
+        <v>0.1354990320547373</v>
       </c>
     </row>
   </sheetData>
